--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2984.0944346656</v>
+        <v>447305.2470663924</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2984.0944346656</v>
+        <v>447305.2470663924</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342735046.769628</v>
+        <v>55148830.66181449</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11483.09085421066</v>
+        <v>1272594.584149798</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21878.26003216819</v>
+        <v>2374549.494440818</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32273.42921012571</v>
+        <v>3476504.404731839</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42757.63466266596</v>
+        <v>4570647.889389289</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53182.80077971132</v>
+        <v>5672602.799680309</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63607.96689675668</v>
+        <v>6774557.709971329</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74033.13301380204</v>
+        <v>7876512.620262345</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84458.2991308474</v>
+        <v>8978467.530553361</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94942.50458338681</v>
+        <v>10072611.01521094</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105374.9251983704</v>
+        <v>11173619.72965206</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115800.0913154157</v>
+        <v>12275574.63994308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126225.257432461</v>
+        <v>13377529.55023411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136650.4235495063</v>
+        <v>14479484.46052514</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147474.9360237713</v>
+        <v>15522488.578138</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>158413.2768980363</v>
+        <v>16543406.49175086</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>380</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>372.0000000001142</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
